--- a/ModeRecognition/KNN/EulerDistance.xlsx
+++ b/ModeRecognition/KNN/EulerDistance.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ModeRecognition\KNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6986F0E-AD35-47E8-9BC1-C8421B3D5B6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E9079F-4DE0-40E3-841F-614670D772E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{D070AE69-2013-4EDB-881D-EE1F7CD72E43}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -52,75 +42,755 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>84.006000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.680000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.341000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.201000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.261000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.915000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.247000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.362000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.516000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.088000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.030000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.899000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104.488000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.726000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.758000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.709000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.938000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.927000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.038000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>190.283000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>166.091000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187.859000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179.824000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>197.827000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.391000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.930000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199.909000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.754000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>211.010000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209.007000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209.377000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210.172000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210.871000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210.208000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>213.125000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200.396000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198.127000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>197.168000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198.304000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>286.312000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>260.763000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283.022000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>271.752000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295.135000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289.815000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>292.177000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298.514000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>269.270000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314.522000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314.408000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320.191000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314.147000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>313.903000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315.498000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314.316000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298.641000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297.330000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295.333000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297.987000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>381.196000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>332.083000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375.180000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360.168000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>389.989000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>387.416000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>386.849000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>397.565000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>356.220000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>419.917000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418.645000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423.663000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418.978000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>417.468000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>419.468000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412.848000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>396.477000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>393.798000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>395.882000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>395.509000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>449.244000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>414.735000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460.182000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>457.088000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.630000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>485.268000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495.590000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>497.048000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>446.205000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523.564000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523.642000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523.336000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522.775000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521.362000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523.817000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>505.994000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.990000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.022000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494.210000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>492.849000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>518.562000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>494.179000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>545.863000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543.939000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>587.022000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580.042000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>618.679000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>597.199000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>532.730000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627.640000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627.664000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>628.884000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>626.664000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>624.874000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>629.701000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>605.457000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592.658000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592.901000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>588.810000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>594.900000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>584.600000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>580.292000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640.462000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>629.208000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>684.065000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680.965000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702.558000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>694.619000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>617.445000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733.546000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>731.671000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>732.449000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>731.869000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>730.902000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>732.253000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705.375000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>691.371000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>689.804000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>687.675000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>694.112000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>664.214000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>664.374000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>724.754000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>723.412000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>779.104000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>769.678000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>804.145000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>796.690000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707.407000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>836.885000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>835.751000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>837.505000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>834.528000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>834.995000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>837.973000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>806.738000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>794.648000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>787.081000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>785.685000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>789.298000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>751.082000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>744.488000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>811.417000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>818.615000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>869.934000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872.529000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>897.506000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>897.696000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801.279000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>940.341000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939.953000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>948.139000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>944.086000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939.714000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>942.974000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>909.275000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>892.736000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>887.245000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890.017000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886.303000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>833.094000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105.516000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211.010000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314.522000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>419.917000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>523.564000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627.640000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>733.546000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>836.885000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>940.341000 seconds</t>
+    <t>840.205000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>908.722000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>895.650000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>967.922000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>964.959000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995.091000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996.916000 seconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>884.714000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,723 +798,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105.088000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>209.007000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314.408000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>418.645000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>523.642000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627.664000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>731.671000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>835.751000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939.953000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1047.884000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105.030000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>209.377000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320.191000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>423.663000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>523.336000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>628.884000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>732.449000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>837.505000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>948.139000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1146.879000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105.899000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210.172000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314.147000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>418.978000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>522.775000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>626.664000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>731.869000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>834.528000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>944.086000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1046.322000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>104.488000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210.871000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>313.903000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>417.468000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>521.362000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>624.874000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>730.902000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>834.995000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939.714000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1044.920000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105.726000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210.208000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315.498000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>419.468000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>523.817000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>629.701000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>732.253000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>837.973000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>942.974000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1047.116000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>114.758000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>213.125000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>314.316000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>412.848000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>505.994000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>605.457000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705.375000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>806.738000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>909.275000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1006.780000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100.709000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200.396000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>298.641000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>396.477000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>494.990000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>592.658000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>691.371000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>794.648000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>892.736000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>984.937000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98.938000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198.127000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>297.330000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>393.798000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>492.022000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>592.901000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>689.804000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>787.081000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>887.245000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>980.585000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98.927000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>197.168000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295.333000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>395.882000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>494.210000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>588.810000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>687.675000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>785.685000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>890.017000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>988.729000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>84.006000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166.091000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>260.763000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>332.083000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>414.735000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>494.179000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>580.292000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>664.374000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>744.488000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>840.205000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.038000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198.304000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>297.987000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>395.509000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>492.849000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>594.900000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>694.112000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>789.298000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>886.303000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>991.362000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93.680000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>187.859000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>283.022000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>375.180000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>460.182000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>545.863000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640.462000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>724.754000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>811.417000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>908.722000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.341000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179.824000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>271.752000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360.168000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>457.088000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>543.939000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>629.208000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>723.412000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>818.615000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>895.650000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.201000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>197.827000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295.135000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>389.989000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>490.630000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>587.022000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>684.065000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>779.104000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>869.934000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>967.922000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.261000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193.391000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>289.815000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>387.416000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>485.268000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>580.042000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>680.965000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>769.678000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>872.529000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>964.959000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97.915000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193.930000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>292.177000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>386.849000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>495.590000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>618.679000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702.558000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>804.145000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>897.506000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>995.091000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99.247000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>199.909000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>298.514000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>397.565000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>497.048000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>597.199000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>694.619000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>796.690000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>897.696000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>996.916000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.362000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180.754000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>269.270000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>356.220000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>446.205000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>532.730000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>617.445000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707.407000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801.279000 seconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>884.714000 seconds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,14 +847,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -955,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -988,26 +976,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1040,23 +1011,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1199,23 +1153,27 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAAE044-684C-436C-9B81-5EE85F859D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1266,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1292,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1370,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1448,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1500,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1526,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1552,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1578,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1604,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1630,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1656,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1682,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1708,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1734,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1760,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1786,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1812,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1838,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1864,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1890,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1916,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1942,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1994,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2072,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2098,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2124,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2150,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2202,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2228,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2254,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2280,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2306,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2332,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2358,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2384,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2410,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2436,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2462,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2488,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2514,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2540,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2566,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2592,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2618,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2644,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2670,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2696,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2748,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2774,7 +2732,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2800,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2826,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2852,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2878,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2904,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2982,7 +2940,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3034,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3060,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3086,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3112,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3138,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3164,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3190,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3216,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3242,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3268,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3294,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3320,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3346,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3372,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3398,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -3424,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -3450,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -3476,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -3502,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -3528,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3554,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3580,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -3606,7 +3564,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -3632,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -3658,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -3710,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3736,7 +3694,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3762,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3788,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -3814,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -3840,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,7 +3824,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -3918,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3944,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3970,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -3996,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4022,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4048,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4074,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4100,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4126,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4152,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4178,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4204,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4230,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4256,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4282,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4308,7 +4266,7 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4334,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -4360,7 +4318,7 @@
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -4386,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4412,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -4438,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -4464,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -4490,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -4516,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -4542,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4568,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4594,7 +4552,7 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4620,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4646,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4672,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4698,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4724,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4750,7 +4708,7 @@
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4776,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4802,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4828,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4854,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4880,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4906,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4932,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4958,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4984,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5010,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5036,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5062,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5088,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5114,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5140,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5166,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5192,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5218,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5244,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5270,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5296,7 +5254,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5322,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5348,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5374,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -5400,7 +5358,7 @@
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -5426,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -5452,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -5478,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -5504,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5530,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -5556,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -5582,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -5608,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -5634,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -5660,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -5686,7 +5644,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -5712,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -5738,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -5764,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -5790,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5816,7 +5774,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5842,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5868,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5894,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5920,7 +5878,7 @@
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5946,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5972,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5998,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -6024,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="H185" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -6050,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -6076,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -6102,7 +6060,7 @@
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -6128,7 +6086,7 @@
         <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -6154,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -6180,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -6206,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="H192" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -6232,7 +6190,7 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -6258,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6284,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -6310,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -6336,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -6362,7 +6320,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -6388,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -6414,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
